--- a/test-protocol/Protocoll.xlsx
+++ b/test-protocol/Protocoll.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tax\tax2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>&gt; AUTH|REQ|{"user":"wolfram"}</t>
   </si>
@@ -46,6 +51,12 @@
   </si>
   <si>
     <t># Local Rpc</t>
+  </si>
+  <si>
+    <t># Authentication</t>
+  </si>
+  <si>
+    <t>&lt; RPC|A|S|addTwo</t>
   </si>
 </sst>
 </file>
@@ -104,6 +115,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -151,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,7 +200,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,59 +422,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
